--- a/Backend/Tests/Planteamiento de pruebas de software.xlsx
+++ b/Backend/Tests/Planteamiento de pruebas de software.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a6c2d78610f3416/Universidad/UAO/Ingenieria de software 1/Proyecto de curso/Proyecto final. Quick response operations - OpData/Pruebas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Prodata\OpData_Proyectos_Operacionales\Backend\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="11_AD4D2F04E46CFB4ACB3E2056FD92D9C6693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3448195D-2B92-40AC-BF16-768CF8BB577F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2882399-EBF9-440F-93D0-9C070828529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8010" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <sheet name="Plantilla" sheetId="6" r:id="rId6"/>
     <sheet name="Criterios aceptacion" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="133">
   <si>
     <t>No Aprobado</t>
   </si>
@@ -309,22 +320,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Un jefe de unidad crea un nuevo para la que tenga el jefe a cargo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripcion: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El jefe de unidad intenta crear un proyecto, excediendo el limite del 
-nombre del proyecto (128 caracteres).</t>
     </r>
   </si>
   <si>
@@ -372,22 +367,6 @@
   </si>
   <si>
     <t>Negativo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripcion: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El jefe de unidad intenta crear un proyecto, excediendo el limite de las 
-observaciones del proyecto (500 caracteres).</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1321,12 +1300,56 @@
 inicio de proyecto previa a la fecha de registro del mismo.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripcion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El jefe de unidad intenta crear un proyecto, excediendo el limite del 
+nombre del proyecto (500 caracteres).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripcion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El jefe de unidad intenta crear un proyecto, excediendo el limite de las 
+observaciones del proyecto (12000 caracteres).</t>
+    </r>
+  </si>
+  <si>
+    <t>Tipo de prueba</t>
+  </si>
+  <si>
+    <t>Resultado que deve devolver el sistema</t>
+  </si>
+  <si>
+    <t>Resultado de la prueba (exitosa / Fallida)</t>
+  </si>
+  <si>
+    <t>Resultado obtenido durante la prueba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,8 +1402,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,7 +1614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1591,14 +1628,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1617,12 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,62 +1739,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1724,8 +1752,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2024,7 +2068,7 @@
   <dimension ref="B2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,10 +2084,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2064,624 +2108,621 @@
       <c r="C5" s="5"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="35"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="20" t="s">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="9"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="S10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="10" t="s">
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="47"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="S12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="36"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="10"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="S10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="26" t="s">
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="47"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="S14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="11" t="s">
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D11" s="19"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="S12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="12" t="s">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="46"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="S16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="11" t="s">
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="19"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="S14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="12" t="s">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="46"/>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="S18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D19" s="11"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="47"/>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="S20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="9" t="s">
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="19"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="S16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="12" t="s">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D21" s="11"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="46"/>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="S22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="9" t="s">
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D17" s="19"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="S18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="11" t="s">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D23" s="11"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="46"/>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="S24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D19" s="19"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="S20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="19"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="S22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="19"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="S24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D25" s="19"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="46"/>
     </row>
     <row r="26" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D26" s="18"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="19"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="18"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D29" s="19"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T8:Y9"/>
+    <mergeCell ref="T10:Y11"/>
+    <mergeCell ref="T12:Y13"/>
+    <mergeCell ref="T14:Y15"/>
+    <mergeCell ref="T16:Y17"/>
+    <mergeCell ref="T18:Y19"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="T20:Y21"/>
+    <mergeCell ref="T22:Y23"/>
+    <mergeCell ref="T24:Y25"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="D24:D25"/>
@@ -2706,66 +2747,69 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="T20:Y21"/>
-    <mergeCell ref="T22:Y23"/>
-    <mergeCell ref="T24:Y25"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T8:Y9"/>
-    <mergeCell ref="T10:Y11"/>
-    <mergeCell ref="T12:Y13"/>
-    <mergeCell ref="T14:Y15"/>
-    <mergeCell ref="T16:Y17"/>
-    <mergeCell ref="T18:Y19"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -2797,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4E2FD6-ABB8-4310-9824-F45C882FD7C1}">
   <dimension ref="A1:AJ159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,11 +2870,11 @@
       <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
@@ -2840,11 +2884,11 @@
       <c r="Q3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="R3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
       <c r="U3" s="6" t="s">
         <v>43</v>
       </c>
@@ -2854,11 +2898,11 @@
       <c r="AE3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
+      <c r="AF3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
       <c r="AI3" s="6" t="s">
         <v>43</v>
       </c>
@@ -2867,27 +2911,27 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
       <c r="AI4" s="6" t="s">
         <v>44</v>
       </c>
@@ -2896,347 +2940,347 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="R5" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="AF5" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="R7" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="AF7" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="R11" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="AF5" s="51" t="s">
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="AF11" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="R7" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="AF7" s="51" t="s">
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+    </row>
+    <row r="14" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="R15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="AF15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="R16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="AF16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-    </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="R11" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="AF11" s="51" t="s">
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="R17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="AF17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="R18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="AF18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-    </row>
-    <row r="14" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C15" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="R15" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" s="48"/>
-      <c r="T15" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="AF15" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C16" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="R16" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" s="48"/>
-      <c r="T16" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="AF16" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="R17" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17" s="48"/>
-      <c r="T17" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="AF17" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="R18" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" s="48"/>
-      <c r="T18" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="AF18" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49">
+      <c r="D19" s="50"/>
+      <c r="E19" s="52">
         <v>44857</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="R19" s="48" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="R19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="48"/>
-      <c r="T19" s="49">
+      <c r="S19" s="50"/>
+      <c r="T19" s="52">
         <v>44857</v>
       </c>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="AF19" s="48" t="s">
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="AF19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="49">
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="52">
         <v>44857</v>
       </c>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
     </row>
     <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
       </c>
@@ -3246,11 +3290,11 @@
       <c r="Q23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
+      <c r="R23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="6" t="s">
         <v>43</v>
       </c>
@@ -3259,18 +3303,18 @@
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="6" t="s">
         <v>44</v>
       </c>
@@ -3279,238 +3323,238 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="R25" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C27" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="R27" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C31" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="R25" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="R27" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="51" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="R31" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="R31" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-    </row>
-    <row r="34" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="48" t="s">
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="R35" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="50" t="s">
+      <c r="S35" s="50"/>
+      <c r="T35" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="R36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" s="50"/>
+      <c r="T36" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="R35" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="48"/>
-      <c r="T35" s="50" t="s">
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="R37" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S37" s="50"/>
+      <c r="T37" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="R36" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S36" s="48"/>
-      <c r="T36" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C37" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="R37" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="S37" s="48"/>
-      <c r="T37" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="R38" s="48" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="R38" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="S38" s="48"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="R39" s="48" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="R39" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S39" s="48"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
     </row>
     <row r="43" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="6" t="s">
         <v>43</v>
       </c>
@@ -3520,11 +3564,11 @@
       <c r="Q43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R43" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
+      <c r="R43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="6" t="s">
         <v>43</v>
       </c>
@@ -3533,18 +3577,18 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="6" t="s">
         <v>44</v>
       </c>
@@ -3553,238 +3597,239 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="R45" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="J46" s="56"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="R47" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="R51" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+    </row>
+    <row r="54" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="R55" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S55" s="50"/>
+      <c r="T55" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="50"/>
+      <c r="E56" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="R45" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C47" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="R47" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="R51" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-    </row>
-    <row r="54" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C55" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="50" t="s">
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="R56" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S56" s="50"/>
+      <c r="T56" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="50"/>
+      <c r="E57" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="R55" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S55" s="48"/>
-      <c r="T55" s="50" t="s">
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="R57" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S57" s="50"/>
+      <c r="T57" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="R56" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S56" s="48"/>
-      <c r="T56" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="R57" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="S57" s="48"/>
-      <c r="T57" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="R58" s="48" t="s">
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="R58" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="S58" s="48"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="R59" s="48" t="s">
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="R59" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="48"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
     </row>
     <row r="63" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="6" t="s">
         <v>43</v>
       </c>
@@ -3794,11 +3839,11 @@
       <c r="Q63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R63" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
+      <c r="R63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
       <c r="U63" s="6" t="s">
         <v>43</v>
       </c>
@@ -3807,18 +3852,18 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
       <c r="U64" s="6" t="s">
         <v>44</v>
       </c>
@@ -3827,238 +3872,238 @@
       </c>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="R65" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C67" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="R67" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C71" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="R65" s="51" t="s">
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="R71" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="51" t="s">
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
+      <c r="V72" s="49"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="49"/>
+      <c r="U73" s="49"/>
+      <c r="V73" s="49"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="49"/>
+      <c r="U74" s="49"/>
+      <c r="V74" s="49"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C75" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="50"/>
+      <c r="E75" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="R75" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S75" s="50"/>
+      <c r="T75" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C76" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="R67" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-    </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-    </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-    </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C71" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="R71" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C75" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="48"/>
-      <c r="E75" s="50" t="s">
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="R76" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S76" s="50"/>
+      <c r="T76" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="U76" s="51"/>
+      <c r="V76" s="51"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C77" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="R75" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S75" s="48"/>
-      <c r="T75" s="50" t="s">
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="R77" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S77" s="50"/>
+      <c r="T77" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="U75" s="50"/>
-      <c r="V75" s="50"/>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="R76" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S76" s="48"/>
-      <c r="T76" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="U76" s="50"/>
-      <c r="V76" s="50"/>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C77" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="R77" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="S77" s="48"/>
-      <c r="T77" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="U77" s="50"/>
-      <c r="V77" s="50"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="R78" s="48" t="s">
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="R78" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="S78" s="48"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="50"/>
-      <c r="V78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="51"/>
+      <c r="U78" s="51"/>
+      <c r="V78" s="51"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="48"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="R79" s="48" t="s">
+      <c r="D79" s="50"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="R79" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S79" s="48"/>
-      <c r="T79" s="49"/>
-      <c r="U79" s="50"/>
-      <c r="V79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="52"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="51"/>
     </row>
     <row r="83" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="6" t="s">
         <v>43</v>
       </c>
@@ -4068,11 +4113,11 @@
       <c r="Q83" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R83" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
+      <c r="R83" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
       <c r="U83" s="6" t="s">
         <v>43</v>
       </c>
@@ -4081,18 +4126,18 @@
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
       <c r="U84" s="6" t="s">
         <v>44</v>
       </c>
@@ -4101,238 +4146,238 @@
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C85" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="R85" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="S85" s="52"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="52"/>
-      <c r="V85" s="52"/>
+      <c r="C85" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="R85" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="S85" s="49"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="49"/>
+      <c r="V85" s="49"/>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
-      <c r="T86" s="52"/>
-      <c r="U86" s="52"/>
-      <c r="V86" s="52"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="49"/>
+      <c r="V86" s="49"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C87" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="R87" s="51" t="s">
+      <c r="C87" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="R87" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="49"/>
+      <c r="V88" s="49"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="49"/>
+      <c r="V89" s="49"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C91" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="R91" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="S87" s="52"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="52"/>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
-      <c r="U88" s="52"/>
-      <c r="V88" s="52"/>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="52"/>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
-      <c r="T90" s="52"/>
-      <c r="U90" s="52"/>
-      <c r="V90" s="52"/>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C91" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="R91" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="S91" s="52"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="52"/>
-      <c r="V91" s="52"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
+      <c r="V91" s="49"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="R92" s="52"/>
-      <c r="S92" s="52"/>
-      <c r="T92" s="52"/>
-      <c r="U92" s="52"/>
-      <c r="V92" s="52"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="49"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="R93" s="52"/>
-      <c r="S93" s="52"/>
-      <c r="T93" s="52"/>
-      <c r="U93" s="52"/>
-      <c r="V93" s="52"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="49"/>
     </row>
     <row r="94" spans="2:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="R94" s="52"/>
-      <c r="S94" s="52"/>
-      <c r="T94" s="52"/>
-      <c r="U94" s="52"/>
-      <c r="V94" s="52"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="49"/>
+      <c r="V94" s="49"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C95" s="48" t="s">
+      <c r="C95" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="48"/>
-      <c r="E95" s="50" t="s">
+      <c r="D95" s="50"/>
+      <c r="E95" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="R95" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S95" s="50"/>
+      <c r="T95" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C96" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="50"/>
+      <c r="E96" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="R96" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S96" s="50"/>
+      <c r="T96" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C97" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="50"/>
+      <c r="E97" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="R97" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S97" s="50"/>
+      <c r="T97" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="R95" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S95" s="48"/>
-      <c r="T95" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="U95" s="50"/>
-      <c r="V95" s="50"/>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C96" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="R96" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S96" s="48"/>
-      <c r="T96" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="U96" s="50"/>
-      <c r="V96" s="50"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C97" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" s="48"/>
-      <c r="E97" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="R97" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="S97" s="48"/>
-      <c r="T97" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="U97" s="50"/>
-      <c r="V97" s="50"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D98" s="48"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="R98" s="48" t="s">
+      <c r="D98" s="50"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="R98" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="S98" s="48"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="50"/>
-      <c r="V98" s="50"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="48"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="R99" s="48" t="s">
+      <c r="D99" s="50"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="R99" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S99" s="48"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="50"/>
-      <c r="V99" s="50"/>
+      <c r="S99" s="50"/>
+      <c r="T99" s="52"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
     </row>
     <row r="103" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="6" t="s">
         <v>43</v>
       </c>
@@ -4340,16 +4385,16 @@
         <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q103" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R103" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
+      <c r="R103" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
       <c r="U103" s="6" t="s">
         <v>43</v>
       </c>
@@ -4358,18 +4403,18 @@
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R104" s="10"/>
-      <c r="S104" s="10"/>
-      <c r="T104" s="10"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
       <c r="U104" s="6" t="s">
         <v>44</v>
       </c>
@@ -4378,238 +4423,238 @@
       </c>
     </row>
     <row r="105" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="R105" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="S105" s="52"/>
-      <c r="T105" s="52"/>
-      <c r="U105" s="52"/>
-      <c r="V105" s="52"/>
+      <c r="C105" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="R105" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S105" s="49"/>
+      <c r="T105" s="49"/>
+      <c r="U105" s="49"/>
+      <c r="V105" s="49"/>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="R106" s="52"/>
-      <c r="S106" s="52"/>
-      <c r="T106" s="52"/>
-      <c r="U106" s="52"/>
-      <c r="V106" s="52"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="R106" s="49"/>
+      <c r="S106" s="49"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
+      <c r="V106" s="49"/>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C107" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="R107" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="S107" s="52"/>
-      <c r="T107" s="52"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="52"/>
+      <c r="C107" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="R107" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S107" s="49"/>
+      <c r="T107" s="49"/>
+      <c r="U107" s="49"/>
+      <c r="V107" s="49"/>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="R108" s="52"/>
-      <c r="S108" s="52"/>
-      <c r="T108" s="52"/>
-      <c r="U108" s="52"/>
-      <c r="V108" s="52"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="R108" s="49"/>
+      <c r="S108" s="49"/>
+      <c r="T108" s="49"/>
+      <c r="U108" s="49"/>
+      <c r="V108" s="49"/>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-      <c r="R109" s="52"/>
-      <c r="S109" s="52"/>
-      <c r="T109" s="52"/>
-      <c r="U109" s="52"/>
-      <c r="V109" s="52"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="R109" s="49"/>
+      <c r="S109" s="49"/>
+      <c r="T109" s="49"/>
+      <c r="U109" s="49"/>
+      <c r="V109" s="49"/>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-      <c r="R110" s="52"/>
-      <c r="S110" s="52"/>
-      <c r="T110" s="52"/>
-      <c r="U110" s="52"/>
-      <c r="V110" s="52"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="R110" s="49"/>
+      <c r="S110" s="49"/>
+      <c r="T110" s="49"/>
+      <c r="U110" s="49"/>
+      <c r="V110" s="49"/>
     </row>
     <row r="111" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="R111" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="S111" s="52"/>
-      <c r="T111" s="52"/>
-      <c r="U111" s="52"/>
-      <c r="V111" s="52"/>
+      <c r="C111" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="R111" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="S111" s="49"/>
+      <c r="T111" s="49"/>
+      <c r="U111" s="49"/>
+      <c r="V111" s="49"/>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C112" s="52"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="52"/>
-      <c r="R112" s="52"/>
-      <c r="S112" s="52"/>
-      <c r="T112" s="52"/>
-      <c r="U112" s="52"/>
-      <c r="V112" s="52"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="R112" s="49"/>
+      <c r="S112" s="49"/>
+      <c r="T112" s="49"/>
+      <c r="U112" s="49"/>
+      <c r="V112" s="49"/>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C113" s="52"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
-      <c r="R113" s="52"/>
-      <c r="S113" s="52"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
-      <c r="V113" s="52"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="R113" s="49"/>
+      <c r="S113" s="49"/>
+      <c r="T113" s="49"/>
+      <c r="U113" s="49"/>
+      <c r="V113" s="49"/>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="R114" s="52"/>
-      <c r="S114" s="52"/>
-      <c r="T114" s="52"/>
-      <c r="U114" s="52"/>
-      <c r="V114" s="52"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="R114" s="49"/>
+      <c r="S114" s="49"/>
+      <c r="T114" s="49"/>
+      <c r="U114" s="49"/>
+      <c r="V114" s="49"/>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C115" s="48" t="s">
+      <c r="C115" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="48"/>
-      <c r="E115" s="50" t="s">
+      <c r="D115" s="50"/>
+      <c r="E115" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="R115" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S115" s="50"/>
+      <c r="T115" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="U115" s="51"/>
+      <c r="V115" s="51"/>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C116" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="50"/>
+      <c r="E116" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="R116" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S116" s="50"/>
+      <c r="T116" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="U116" s="51"/>
+      <c r="V116" s="51"/>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C117" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="R117" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S117" s="50"/>
+      <c r="T117" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-      <c r="R115" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S115" s="48"/>
-      <c r="T115" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="U115" s="50"/>
-      <c r="V115" s="50"/>
-    </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C116" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="48"/>
-      <c r="E116" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="R116" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S116" s="48"/>
-      <c r="T116" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="U116" s="50"/>
-      <c r="V116" s="50"/>
-    </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C117" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D117" s="48"/>
-      <c r="E117" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="R117" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="S117" s="48"/>
-      <c r="T117" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="U117" s="50"/>
-      <c r="V117" s="50"/>
+      <c r="U117" s="51"/>
+      <c r="V117" s="51"/>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C118" s="48" t="s">
+      <c r="C118" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D118" s="48"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="R118" s="48" t="s">
+      <c r="D118" s="50"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="R118" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="S118" s="48"/>
-      <c r="T118" s="50"/>
-      <c r="U118" s="50"/>
-      <c r="V118" s="50"/>
+      <c r="S118" s="50"/>
+      <c r="T118" s="51"/>
+      <c r="U118" s="51"/>
+      <c r="V118" s="51"/>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D119" s="48"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="R119" s="48" t="s">
+      <c r="D119" s="50"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="R119" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S119" s="48"/>
-      <c r="T119" s="49"/>
-      <c r="U119" s="50"/>
-      <c r="V119" s="50"/>
+      <c r="S119" s="50"/>
+      <c r="T119" s="52"/>
+      <c r="U119" s="51"/>
+      <c r="V119" s="51"/>
     </row>
     <row r="123" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
       <c r="F123" s="6" t="s">
         <v>43</v>
       </c>
@@ -4617,13 +4662,13 @@
         <v>33</v>
       </c>
       <c r="H123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="6" t="s">
         <v>44</v>
       </c>
@@ -4632,141 +4677,141 @@
       </c>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C125" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="52"/>
+      <c r="C125" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
     </row>
     <row r="126" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="49"/>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C127" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
+      <c r="C127" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="49"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C131" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
+      <c r="C131" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" s="49"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="49"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="52"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="48"/>
-      <c r="E135" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" s="51"/>
+      <c r="G135" s="51"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C136" s="48" t="s">
+      <c r="C136" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D136" s="48"/>
-      <c r="E136" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C137" s="48" t="s">
+      <c r="C137" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D137" s="48"/>
-      <c r="E137" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C138" s="48" t="s">
+      <c r="C138" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D138" s="48"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C139" s="48" t="s">
+      <c r="C139" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D139" s="48"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
     </row>
     <row r="143" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
+      <c r="C143" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
       <c r="F143" s="6" t="s">
         <v>43</v>
       </c>
@@ -4775,9 +4820,9 @@
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
       <c r="F144" s="6" t="s">
         <v>44</v>
       </c>
@@ -4786,210 +4831,244 @@
       </c>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C145" s="51" t="s">
+      <c r="C145" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="49"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="49"/>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
+    </row>
+    <row r="147" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147" s="49"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C151" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" s="49"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="49"/>
+      <c r="G151" s="49"/>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49"/>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="49"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="49"/>
+      <c r="G153" s="49"/>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C154" s="49"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="49"/>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="50"/>
+      <c r="E155" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F155" s="51"/>
+      <c r="G155" s="51"/>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="50"/>
+      <c r="E156" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="52"/>
-      <c r="G145" s="52"/>
-    </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
-    </row>
-    <row r="147" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
-    </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C148" s="52"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
-    </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C149" s="52"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
-    </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C150" s="52"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52"/>
-      <c r="F150" s="52"/>
-      <c r="G150" s="52"/>
-    </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C151" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
-    </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C152" s="52"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="52"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="52"/>
-    </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C153" s="52"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
-    </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C154" s="52"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="52"/>
-      <c r="F154" s="52"/>
-      <c r="G154" s="52"/>
-    </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C155" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="48"/>
-      <c r="E155" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F155" s="50"/>
-      <c r="G155" s="50"/>
-    </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C156" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D156" s="48"/>
-      <c r="E156" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F156" s="50"/>
-      <c r="G156" s="50"/>
+      <c r="F156" s="51"/>
+      <c r="G156" s="51"/>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C157" s="48" t="s">
+      <c r="C157" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D157" s="48"/>
-      <c r="E157" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F157" s="50"/>
-      <c r="G157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F157" s="51"/>
+      <c r="G157" s="51"/>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C158" s="48" t="s">
+      <c r="C158" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D158" s="48"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
-      <c r="G158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="51"/>
+      <c r="F158" s="51"/>
+      <c r="G158" s="51"/>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C159" s="48" t="s">
+      <c r="C159" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D159" s="48"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50"/>
-      <c r="G159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="51"/>
+      <c r="F159" s="51"/>
+      <c r="G159" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="C7:G10"/>
-    <mergeCell ref="C11:G14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="C27:G30"/>
-    <mergeCell ref="C31:G34"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="C45:G46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="C47:G50"/>
-    <mergeCell ref="C51:G54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="C65:G66"/>
-    <mergeCell ref="C67:G70"/>
-    <mergeCell ref="C71:G74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="C83:E84"/>
-    <mergeCell ref="C85:G86"/>
-    <mergeCell ref="C87:G90"/>
-    <mergeCell ref="C91:G94"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="C103:E104"/>
-    <mergeCell ref="C105:G106"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AF5:AJ6"/>
+    <mergeCell ref="AF7:AJ10"/>
+    <mergeCell ref="AF11:AJ14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="R117:S117"/>
+    <mergeCell ref="T117:V117"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="T118:V118"/>
+    <mergeCell ref="R119:S119"/>
+    <mergeCell ref="T119:V119"/>
+    <mergeCell ref="R107:V110"/>
+    <mergeCell ref="R111:V114"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="T115:V115"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="T98:V98"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="R103:T104"/>
+    <mergeCell ref="R105:V106"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T96:V96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="T79:V79"/>
+    <mergeCell ref="R83:T84"/>
+    <mergeCell ref="R85:V86"/>
+    <mergeCell ref="R87:V90"/>
+    <mergeCell ref="R91:V94"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:V76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:V78"/>
+    <mergeCell ref="R63:T64"/>
+    <mergeCell ref="R65:V66"/>
+    <mergeCell ref="R67:V70"/>
+    <mergeCell ref="R71:V74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="R47:V50"/>
+    <mergeCell ref="R51:V54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="R43:T44"/>
+    <mergeCell ref="R45:V46"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="R25:V26"/>
+    <mergeCell ref="R27:V30"/>
+    <mergeCell ref="R31:V34"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="C127:G130"/>
+    <mergeCell ref="C131:G134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="C107:G110"/>
+    <mergeCell ref="C111:G114"/>
     <mergeCell ref="R3:T4"/>
     <mergeCell ref="R5:V6"/>
     <mergeCell ref="R7:V10"/>
@@ -5014,116 +5093,82 @@
     <mergeCell ref="E138:G138"/>
     <mergeCell ref="C123:E124"/>
     <mergeCell ref="C125:G126"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="C127:G130"/>
-    <mergeCell ref="C131:G134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="C107:G110"/>
-    <mergeCell ref="C111:G114"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="R25:V26"/>
-    <mergeCell ref="R27:V30"/>
-    <mergeCell ref="R31:V34"/>
-    <mergeCell ref="R47:V50"/>
-    <mergeCell ref="R51:V54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="R43:T44"/>
-    <mergeCell ref="R45:V46"/>
-    <mergeCell ref="R63:T64"/>
-    <mergeCell ref="R65:V66"/>
-    <mergeCell ref="R67:V70"/>
-    <mergeCell ref="R71:V74"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="T79:V79"/>
-    <mergeCell ref="R83:T84"/>
-    <mergeCell ref="R85:V86"/>
-    <mergeCell ref="R87:V90"/>
-    <mergeCell ref="R91:V94"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T76:V76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:V78"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="T98:V98"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="R103:T104"/>
-    <mergeCell ref="R105:V106"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T96:V96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="R117:S117"/>
-    <mergeCell ref="T117:V117"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="T118:V118"/>
-    <mergeCell ref="R119:S119"/>
-    <mergeCell ref="T119:V119"/>
-    <mergeCell ref="R107:V110"/>
-    <mergeCell ref="R111:V114"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="T115:V115"/>
-    <mergeCell ref="R116:S116"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AF5:AJ6"/>
-    <mergeCell ref="AF7:AJ10"/>
-    <mergeCell ref="AF11:AJ14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="C103:E104"/>
+    <mergeCell ref="C105:G106"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="C83:E84"/>
+    <mergeCell ref="C85:G86"/>
+    <mergeCell ref="C87:G90"/>
+    <mergeCell ref="C91:G94"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="C65:G66"/>
+    <mergeCell ref="C67:G70"/>
+    <mergeCell ref="C71:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="C47:G50"/>
+    <mergeCell ref="C51:G54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="C45:G46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="C27:G30"/>
+    <mergeCell ref="C31:G34"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C7:G10"/>
+    <mergeCell ref="C11:G14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C23:E24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B23" location="Pruebas!A1" display="Pruebas!A1" xr:uid="{37CAD3CD-32BD-4C82-BA06-192AF72CBDE6}"/>
@@ -5143,6 +5188,7 @@
     <hyperlink ref="AE3" location="Pruebas!A1" display="Pruebas!A1" xr:uid="{9B573671-C6F0-4EBB-B6E2-82C9EDA252C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5213,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE03F4C-E449-4CBE-A3F0-3BE0B254C084}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5232,11 +5278,11 @@
       <c r="C6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
@@ -5245,16 +5291,16 @@
         <v>61</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
         <v>44</v>
       </c>
@@ -5262,7 +5308,7 @@
         <v>53</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -5272,21 +5318,21 @@
       <c r="D8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
       <c r="L8" s="53"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
@@ -5296,114 +5342,126 @@
       <c r="D10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
       <c r="L10" s="53"/>
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
       <c r="O10" s="53"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="48" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="48" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="48" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="48" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="48" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5451,7 +5509,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5462,7 +5520,7 @@
         <v>61</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K4" s="6">
         <v>6</v>
@@ -5471,14 +5529,14 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="51" t="s">
-        <v>118</v>
+      <c r="D5" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="J5" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
@@ -5529,7 +5587,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -5540,7 +5598,7 @@
         <v>61</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K11" s="6">
         <v>7</v>
@@ -5549,14 +5607,14 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="51" t="s">
-        <v>117</v>
+      <c r="D12" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
       <c r="J12" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
@@ -5607,7 +5665,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
@@ -5618,7 +5676,7 @@
         <v>61</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K18" s="6">
         <v>8</v>
@@ -5628,13 +5686,13 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D19" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="J19" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
@@ -5685,7 +5743,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="6">
         <v>4</v>
@@ -5695,7 +5753,7 @@
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D26" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
@@ -5730,7 +5788,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="6">
         <v>5</v>
@@ -5739,8 +5797,8 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="51" t="s">
-        <v>120</v>
+      <c r="D33" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
